--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R8c63eaa6e49a487f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rebf2bdd7df6a4f88"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rebf2bdd7df6a4f88"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R12003175b6f449b4"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R12003175b6f449b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Racafd63470a14829"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Racafd63470a14829"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R31437802519d4f8c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R31437802519d4f8c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc17d2e3b9ab44489"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc17d2e3b9ab44489"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R0188a61bd60a4603"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R0188a61bd60a4603"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R353cca77f81d4f88"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R353cca77f81d4f88"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc5db3516dd2945c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc5db3516dd2945c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc51566e603d448c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc51566e603d448c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R7aac219214ee4147"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R7aac219214ee4147"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R49890e70177442b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R49890e70177442b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R5265c0215c2c4b45"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R5265c0215c2c4b45"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R65cee58171454017"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R65cee58171454017"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R1689a9966e374b26"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R1689a9966e374b26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Ra05f859a277b4d55"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Ra05f859a277b4d55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R892e5f1279f84409"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R892e5f1279f84409"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rebc143a4d1b34a84"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rebc143a4d1b34a84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc5b1fb2e9c634fbe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc5b1fb2e9c634fbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Raf85f0a04f094cb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Raf85f0a04f094cb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Re7a767bbd4274017"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Re7a767bbd4274017"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rae229ef833f3422a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rae229ef833f3422a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R0e4828a091704530"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R0e4828a091704530"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R3ada47aa233d450d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R3ada47aa233d450d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rbb34dd6c0bd84166"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rbb34dd6c0bd84166"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R573d0fa3875a4e89"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R573d0fa3875a4e89"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rf4c172051e724d70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rf4c172051e724d70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R30eb554b10784875"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R30eb554b10784875"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R98488dc6f67248f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/46_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R98488dc6f67248f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R3c681dfec8144be7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
